--- a/biology/Zoologie/Aeolidida/Aeolidida.xlsx
+++ b/biology/Zoologie/Aeolidida/Aeolidida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aeolidida forment un infra-ordre de mollusques gastéropodes de l'ordre des nudibranches.
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les nudibranches éolidiens ont pour la plupart le corps allongé, et dorsalement couvert d’appendices fuselés appelés « cérates », qui remplacent le panache branchial[1]. Ceux-ci jouent un rôle à la fois respiratoire, digestif et défensif, en concentrant les cellules urticantes des animaux venimeux qu’ils consomment (principalement des cnidaires, notamment des hydraires). Les cérates sont simples, et peuvent être alignés ou former des touffes. Sur la tête se trouve, en plus de la paire de rhinophores, une paire de tentacules buccaux assez longs, qui sont portés recourbés vers le haut chez de nombreuses espèces, à la manière de défenses d’éléphant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les nudibranches éolidiens ont pour la plupart le corps allongé, et dorsalement couvert d’appendices fuselés appelés « cérates », qui remplacent le panache branchial. Ceux-ci jouent un rôle à la fois respiratoire, digestif et défensif, en concentrant les cellules urticantes des animaux venimeux qu’ils consomment (principalement des cnidaires, notamment des hydraires). Les cérates sont simples, et peuvent être alignés ou former des touffes. Sur la tête se trouve, en plus de la paire de rhinophores, une paire de tentacules buccaux assez longs, qui sont portés recourbés vers le haut chez de nombreuses espèces, à la manière de défenses d’éléphant.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (7 novembre 2013)[3], prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 12 familles réparties en trois super-familles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (7 novembre 2013), prenant pour base la taxinomie de Bouchet &amp; Rocroi (2005), on compte 12 familles réparties en trois super-familles :
 super-famille Aeolidioidea Gray, 1827
 Aeolidiidae Gray, 1827
 Facelinidae Bergh, 1889
